--- a/TestData/OpenCart_LoginTestdata.xlsx
+++ b/TestData/OpenCart_LoginTestdata.xlsx
@@ -4,15 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="18672" windowHeight="3420" tabRatio="877"/>
+    <workbookView xWindow="384" yWindow="36" windowWidth="16260" windowHeight="5856" tabRatio="877"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -416,7 +413,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,28 +493,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>